--- a/biology/Zoologie/Biblis_hyperia/Biblis_hyperia.xlsx
+++ b/biology/Zoologie/Biblis_hyperia/Biblis_hyperia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Biblis hyperias, la Bande rouge est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Biblidinae et du genre Biblis dont il est le seul représentant.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Biblis hyperia est un papillon d'une envergure de 51 mm à 76 mm, aux ailes postérieures très festonnées.
-Le dessus des ailes est marron à noir avec aux ailes postérieures postérieures une bande submarginale rouge[1].
-Le revers est marron plus clair avec une bande rose[2].
+Le dessus des ailes est marron à noir avec aux ailes postérieures postérieures une bande submarginale rouge.
+Le revers est marron plus clair avec une bande rose.
 			Biblis hyperia, vue dorsale. Guyane française
 			Biblis hyperias revers
 			Chrysalide
@@ -547,104 +561,321 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biblis hyperia a été décrite par Pieter Cramer en 1779 sous le nom initial de Papilio hyperia[3].
-Synonymie
-Papilio hyperia (Cramer, 1779) Protonyme
-Didonis biblis (Godman &amp; Salvin, [1883])[4]
-Liste des sous-espèces
-Biblis hyperia hyperia
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biblis hyperia a été décrite par Pieter Cramer en 1779 sous le nom initial de Papilio hyperia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Papilio hyperia (Cramer, 1779) Protonyme
+Didonis biblis (Godman &amp; Salvin, )</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biblis hyperia hyperia
 Synonymie pour cette sous-espèce
-Papilio biblis (Fabricius, 1775)[5]
+Papilio biblis (Fabricius, 1775)
 Biblis thadana (Godart, 1819)
 Biblis hyperia aganisa (Boisduval, 1836); présent au Mexique.
 Synonymie pour cette sous-espèce
-Biblis aganisa (Boisduval, 1836)[6]
-Didonis pasira (Doubleday, 1848)[7]
-Dilonis aganisa (Godman &amp; Salvin, [1883])[8]
+Biblis aganisa (Boisduval, 1836)
+Didonis pasira (Doubleday, 1848)
+Dilonis aganisa (Godman &amp; Salvin, )
 Papilio quautemotzin (Arias, 1968)
 Papilio ququhemotzin (Arias, 1968)
 Biblis hyperia laticlavia (Thieme, 1904); présent en Équateur
 Synonymie pour cette sous-espèce
-Didonis hyperia laticlavia (Thieme, 1904)[9]
+Didonis hyperia laticlavia (Thieme, 1904)
 Biblis hyperia nectanabis (Fruhstorfer, 1909); présent au Brésil et au Paraguay.
 Synonymie pour cette sous-espèce
 Didonis hyperia nectanabis (Fruhstorfer, 1909)
 Biblis hyperia pacifica (Hall, 1928); présent en Équateur
 Didonis hyperia pacifica (Hall, 1928)
-Biblis hyperia ssp au Pérou[10].
-Noms vernaculaires
-Biblis hyperia se nomme Bande rouge en français, Crimson-banded Black ou Red Rim en anglais[2],[10],[1].
+Biblis hyperia ssp au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biblis hyperia se nomme Bande rouge en français, Crimson-banded Black ou Red Rim en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Biblis_hyperia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Biblis hyperia vole de mars à novembre au Mexique et en Amérique Centrale[1].
-Plantes hôtes
-La plante hôte de sa chenille est Tragia volubilis[11],[12].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biblis hyperia vole de mars à novembre au Mexique et en Amérique Centrale.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Biblis_hyperia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Tragia volubilis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biblis hyperia est présent présent aux USA dans le sud du Texas, au Mexique, en Équateur, au Brésil au Paraguay et en Argentine[10]. Biblis hyperia est présent de façon discontinue dans les Antilles et réside en particulier à la Guadeloupe, à Marie-Galante, à Haïti et en République Dominicaine et à Porto Rico[12].
-Biotope
-Biblis hyperia réside en forêt claire et sur les bords de routes[13].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biblis hyperia est présent présent aux USA dans le sud du Texas, au Mexique, en Équateur, au Brésil au Paraguay et en Argentine. Biblis hyperia est présent de façon discontinue dans les Antilles et réside en particulier à la Guadeloupe, à Marie-Galante, à Haïti et en République Dominicaine et à Porto Rico.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biblis hyperia réside en forêt claire et sur les bords de routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblis_hyperia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
